--- a/Python/general_python.xlsx
+++ b/Python/general_python.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\LearnPython\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CFFB8D-8C97-4E6A-B866-30D0697CDA1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8D7AB-A66C-4E7C-AE23-10BACF2F3FEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4272" yWindow="912" windowWidth="11592" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9720" yWindow="936" windowWidth="13296" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Library" sheetId="1" r:id="rId1"/>
+    <sheet name="Miscellaneous" sheetId="1" r:id="rId1"/>
+    <sheet name="Library" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,12 +25,73 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">1. sys </t>
+  </si>
+  <si>
+    <t>The sys module in Python provides various functions and variables that are used to manipulate different parts of the Python runtime environment.</t>
+  </si>
+  <si>
+    <t>sys.argv[0] is the name of the current Python script.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sys.argv : It is a list of command-line arguments; len(sys.argv) provides the number of command-line arguments;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.geeksforgeeks.org/python-sys-module/ </t>
+  </si>
+  <si>
+    <t>1. import module in Python</t>
+  </si>
+  <si>
+    <t>import math;  import module_name</t>
+  </si>
+  <si>
+    <t>from math import pi; import module_name.member_name</t>
+  </si>
+  <si>
+    <t>from math import *; from module_name import *</t>
+  </si>
+  <si>
+    <t>All the functions and constants can be imported using *</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/import-module-python/</t>
+  </si>
+  <si>
+    <t>import numpy as np; import [module] as [another_name]</t>
+  </si>
+  <si>
+    <t>2. __name__ == "__main__"</t>
+  </si>
+  <si>
+    <t>https://www.freecodecamp.org/news/if-name-main-python-example/</t>
+  </si>
+  <si>
+    <t>__name__ is a system variable, which is assigned as __main__</t>
+  </si>
+  <si>
+    <t>only when the script is excuted as a main module</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -52,13 +114,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -337,12 +402,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{4D184EF5-3766-4AB2-B805-C43B1C851543}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{EE97580B-157F-470D-9529-037CB46999B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D65883B-30F5-44DA-AD19-969ABB1BFD9E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{2D1B8D12-4D15-440E-802D-015574CE3A01}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Python/general_python.xlsx
+++ b/Python/general_python.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\LearnPython\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\LearnPython\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8D7AB-A66C-4E7C-AE23-10BACF2F3FEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFBC6DB-910E-419B-8A8A-2FFF1C74F1BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="936" windowWidth="13296" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Miscellaneous" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">1. sys </t>
   </si>
@@ -74,6 +74,27 @@
   </si>
   <si>
     <t>only when the script is excuted as a main module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. with … as … </t>
+  </si>
+  <si>
+    <t>Using with statement we can get automatic exception handelling and better syntax.</t>
+  </si>
+  <si>
+    <t>https://www.codegrepper.com/code-examples/python/with+as+in+python</t>
+  </si>
+  <si>
+    <t>4. __enter__ … __exiit__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statement body is entered (__enter__()) and (2) </t>
+  </si>
+  <si>
+    <t>after the statement body is exited (__exit__())</t>
+  </si>
+  <si>
+    <t>https://alysivji.github.io/managing-resources-with-context-managers-pythonic.html</t>
   </si>
 </sst>
 </file>
@@ -402,21 +423,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="57.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -427,12 +448,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -440,12 +461,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -456,15 +477,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" xr:uid="{4D184EF5-3766-4AB2-B805-C43B1C851543}"/>
     <hyperlink ref="C6" r:id="rId2" xr:uid="{EE97580B-157F-470D-9529-037CB46999B1}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{370B2B4A-2009-4B16-985A-C38921397B18}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{603AB8B6-4E4A-4F80-9C53-8138819D95D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -475,16 +525,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,17 +542,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>

--- a/Python/general_python.xlsx
+++ b/Python/general_python.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\LearnPython\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\LearnPython\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFBC6DB-910E-419B-8A8A-2FFF1C74F1BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E11D65-5F3C-4734-A070-B2A3D6D8B453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Miscellaneous" sheetId="1" r:id="rId1"/>
     <sheet name="Library" sheetId="2" r:id="rId2"/>
+    <sheet name="Key command" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">1. sys </t>
   </si>
@@ -95,6 +96,33 @@
   </si>
   <si>
     <t>https://alysivji.github.io/managing-resources-with-context-managers-pythonic.html</t>
+  </si>
+  <si>
+    <t>python --version</t>
+  </si>
+  <si>
+    <t>python2 --version</t>
+  </si>
+  <si>
+    <t>python -m pip --version</t>
+  </si>
+  <si>
+    <t>python2.7 -m pip --version</t>
+  </si>
+  <si>
+    <t>check python version</t>
+  </si>
+  <si>
+    <t>check python2 version</t>
+  </si>
+  <si>
+    <t>check pip version</t>
+  </si>
+  <si>
+    <t>check pip for python2.7 version</t>
+  </si>
+  <si>
+    <t>Note, when we have conda installed, the default python is set in basrh.rc file (Python 3.8.5)</t>
   </si>
 </sst>
 </file>
@@ -425,19 +453,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -448,12 +476,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -461,12 +489,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -477,12 +505,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -493,7 +521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -504,7 +532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -528,13 +556,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="64.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,17 +570,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -563,4 +591,59 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA7DEC7-C6F4-4C96-A227-C95339394109}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python/general_python.xlsx
+++ b/Python/general_python.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\LearnPython\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\LearnPython\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E11D65-5F3C-4734-A070-B2A3D6D8B453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB283FD5-CD51-4D6A-B0B7-1565D1EE8B82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34545" yWindow="2610" windowWidth="20355" windowHeight="12090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Miscellaneous" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">1. sys </t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>Note, when we have conda installed, the default python is set in basrh.rc file (Python 3.8.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Install pip for Python2.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can install it manually by following </t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/54272891/how-to-install-pip-for-python-2-7</t>
   </si>
 </sst>
 </file>
@@ -454,18 +463,18 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -476,12 +485,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -489,12 +498,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -505,12 +514,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -521,7 +530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -532,7 +541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -550,19 +559,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D65883B-30F5-44DA-AD19-969ABB1BFD9E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="64.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,24 +579,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{2D1B8D12-4D15-440E-802D-015574CE3A01}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{86BE3DE2-0A8D-46A8-A7D3-5B44DD2D932D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -597,18 +620,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA7DEC7-C6F4-4C96-A227-C95339394109}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -619,7 +642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -627,7 +650,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -635,7 +658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>

--- a/Python/general_python.xlsx
+++ b/Python/general_python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\LearnPython\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB283FD5-CD51-4D6A-B0B7-1565D1EE8B82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7A5C6B-49E7-41F8-A268-77C138521121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34545" yWindow="2610" windowWidth="20355" windowHeight="12090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Miscellaneous" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">1. sys </t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/54272891/how-to-install-pip-for-python-2-7</t>
+  </si>
+  <si>
+    <t>3.  Publish your own Python Library</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zhpI6Yhz9_4</t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D65883B-30F5-44DA-AD19-969ABB1BFD9E}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -567,7 +573,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -607,10 +613,19 @@
         <v>34</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{2D1B8D12-4D15-440E-802D-015574CE3A01}"/>
     <hyperlink ref="B7" r:id="rId2" xr:uid="{86BE3DE2-0A8D-46A8-A7D3-5B44DD2D932D}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{B6951C38-EB93-40B4-8BCA-895D1DFA5700}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
